--- a/glossary.xlsx
+++ b/glossary.xlsx
@@ -34,16 +34,16 @@
     <t>wardrobe box</t>
   </si>
   <si>
-    <t>קרטון ספרים</t>
-  </si>
-  <si>
-    <t>קרטון כלים</t>
-  </si>
-  <si>
-    <t>קרטון בגדים שכיבה</t>
-  </si>
-  <si>
-    <t>קרטון תלייה</t>
+    <t>קופסה קטנה</t>
+  </si>
+  <si>
+    <t>קופסה בינונית</t>
+  </si>
+  <si>
+    <t>שכיבה</t>
+  </si>
+  <si>
+    <t>קופסת בגדים</t>
   </si>
 </sst>
 </file>
